--- a/mannwhitneyu_tests.xlsx
+++ b/mannwhitneyu_tests.xlsx
@@ -976,7 +976,7 @@
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>Generated by SciTeX Stats | 2025-10-01 05:36:42</t>
+          <t>Generated by SciTeX Stats | 2025-10-01 18:16:15</t>
         </is>
       </c>
     </row>
